--- a/Barbie_Financiera_FASE_2/BF-0046/BF-0046 Escenarios y Casos de Uso.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0046/BF-0046 Escenarios y Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Documents\ProyectosVSC\TercerCiclo-2024\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0046\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ED5F00-7C56-4DA8-8A50-4D2020A01D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005BE26B-D5E0-4A2B-B4C9-2A1777D93572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D83861FC-CD13-4EEC-BCF4-DB1FFF9B21E6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Criterios de Aceptación</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Se intenta registrar un monto sin seleccionar una categoría</t>
   </si>
   <si>
-    <t>Se  selecciona una categoría existente y se agrega el gasto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BF-0046CP003</t>
   </si>
   <si>
@@ -138,58 +135,16 @@
     <t>El usuario debe haber iniciado sesión en el sistema.</t>
   </si>
   <si>
-    <t>Monto: $15
-Categoría: "Alimentos"</t>
-  </si>
-  <si>
     <t>El sistema guarda el gasto con los datos ingresados y lo muestra en la lista de gastos registrados.</t>
   </si>
   <si>
     <t>Validar que el sistema muestre un mensaje de error cuando se intenta registrar un gasto sin seleccionar una categoría.</t>
   </si>
   <si>
-    <t>Monto: $20</t>
-  </si>
-  <si>
     <t>El sistema muestra un mensaje de error indicando que es necesario seleccionar una categoría para registrar el gasto.</t>
   </si>
   <si>
-    <t>Validar que el usuario pueda seleccionar una categoría existente y agregar un gasto con dicha categoría.</t>
-  </si>
-  <si>
-    <t>El usuario debe haber iniciado sesión y haber configurado previamente al menos una categoría.</t>
-  </si>
-  <si>
-    <t>Monto: $30
-Categoría: "Transporte"</t>
-  </si>
-  <si>
-    <t>El sistema guarda el gasto y lo muestra en la lista de gastos registrados, asociado a la categoría "Transporte".</t>
-  </si>
-  <si>
-    <t>1. Navegar a la sección de registro de gastos.
-2. Ingresar el monto del gasto ($15).
-3. Seleccionar la categoría "Alimentos".
-4. Guardar el gasto.</t>
-  </si>
-  <si>
-    <t>1. Navegar a la sección de registro de gastos.
-2. Ingresar el monto del gasto ($20).
-3. No seleccionar ninguna categoría.
-4. Intentar guardar el gasto.</t>
-  </si>
-  <si>
-    <t>1. Navegar a la sección de registro de gastos.
-2. Ingresar el monto del gasto ($30).
-3. Seleccionar la categoría "Transporte".
-4. Guardar el gasto.</t>
-  </si>
-  <si>
     <t>Validar que el usuario pueda agregar una nueva categoría personalizada y asignarla a un gasto.</t>
-  </si>
-  <si>
-    <t>Nueva Categoría: "Educación"
-Monto: $50</t>
   </si>
   <si>
     <t>El sistema guarda el gasto y lo muestra en la lista de gastos registrados, asociado a la nueva categoría "Educación".</t>
@@ -214,13 +169,6 @@
     <t>El usuario debe haber iniciado sesión y tener configurada la categoría "Alimentos".</t>
   </si>
   <si>
-    <t>Gasto 1: $15 en "Alimentos"
-Gasto 2: $25 en "Alimentos"</t>
-  </si>
-  <si>
-    <t>El sistema muestra un total de $40 en la categoría "Alimentos".</t>
-  </si>
-  <si>
     <t>Validar que el sistema muestre una alerta cuando se registra un gasto que supera el límite de presupuesto para una categoría específica.</t>
   </si>
   <si>
@@ -228,9 +176,6 @@
   </si>
   <si>
     <t>Gasto: $120 en "Entretenimiento"</t>
-  </si>
-  <si>
-    <t>El sistema muestra una alerta indicando que el gasto excede el presupuesto de la categoría "Entretenimiento".</t>
   </si>
   <si>
     <t>Validar que el sistema muestre una alerta cuando los gastos registrados superen el límite del presupuesto general.</t>
@@ -241,27 +186,11 @@
   <si>
     <t>Gasto 1: $100 en "Alimentos"
 Gasto 2: $120 en "Transporte"</t>
-  </si>
-  <si>
-    <t>El sistema muestra una alerta indicando que el gasto total excede el presupuesto general de $200.</t>
-  </si>
-  <si>
-    <t>1. Navegar a la sección de categorías.
-2. Agregar una nueva categoría con el nombre "Educación".
-3. Navegar a la sección de registro de gastos.
-4. Ingresar el monto del gasto ($50).
-5. Seleccionar la categoría "Educación".
-6. Guardar el gasto.</t>
   </si>
   <si>
     <t>1. Registrar el primer gasto: monto $20, categoría "Alimentos".
 2. Registrar el segundo gasto: monto $30, categoría "Transporte".
 3. Navegar a la sección de resumen o sumatoria de gastos.</t>
-  </si>
-  <si>
-    <t>1. Registrar el primer gasto: monto $15, categoría "Alimentos".
-2. Registrar el segundo gasto: monto $25, categoría "Alimentos".
-3. Consultar el total gastado en la categoría "Alimentos".</t>
   </si>
   <si>
     <t>1. Navegar a la sección de registro de gastos.
@@ -273,6 +202,82 @@
     <t>1. Registrar el primer gasto: monto $100, categoría "Alimentos".
 2. Registrar el segundo gasto: monto $120, categoría "Transporte".
 3. Verificar si el sistema muestra alguna alerta después de registrar el segundo gasto.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar un mes para registrar el gasto.
+2. Ingresar monto de ingresos
+3. Ingresar el monto del gasto ($15).
+4. Seleccionar la categoría "Alimentos".
+5. Guardar el gasto.</t>
+  </si>
+  <si>
+    <t>Ingresos: $100
+Monto: $15
+Categoría: "Alimentos"</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>1. Seleccionar un mes para registrar el gasto.
+2. Ingresar monto de ingresos
+3. Ingresar el monto del gasto ($20).
+4. No seleccionar ninguna categoría.
+5. Intentar guardar el gasto.</t>
+  </si>
+  <si>
+    <t>Ingreso: $100
+Monto: $20</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Nueva Categoría: "Gym"
+Monto: $50</t>
+  </si>
+  <si>
+    <t>1. Navegar a la sección de categorías.
+2. Agregar una nueva categoría con el nombre "Gym".
+4. Ingresar el monto del gasto ($50).
+6. Guardar el gasto.</t>
+  </si>
+  <si>
+    <t>1. Registrar el primer gasto: monto $15, categoría "Alimentos".
+2. Registrar el segundo gasto: monto $30, categoría "Alimentos".
+3. Consultar el total gastado en la categoría "Alimentos".</t>
+  </si>
+  <si>
+    <t>El sistema muestra un total de $45 en la categoría "Alimentos".</t>
+  </si>
+  <si>
+    <t>Gasto 1: $15 en "Alimentos"
+Gasto 2: $30 en "Alimentos"</t>
+  </si>
+  <si>
+    <t>El sistema muestra que el gasto excede el presupuesto u ingreso</t>
+  </si>
+  <si>
+    <t>Se modifica un gasto de alguna de las categorías</t>
+  </si>
+  <si>
+    <t>Validar que el sistema tenga la capacidad de modificar un gasto realizado anteriormente</t>
+  </si>
+  <si>
+    <t>El usuario debe haber iniciado sesión y haber realizado al menos un gasto en alguna categoría</t>
+  </si>
+  <si>
+    <t>Monto anterior: $120
+Monto nuevo: $100</t>
+  </si>
+  <si>
+    <t>El sistema realiza la modificación del gasto y el nuevo valor se ve reflejado en el nuevo balance</t>
+  </si>
+  <si>
+    <t>1. Iniciar sesión y seleccionar el mes del gasto
+2. Registrar un gasto de $120 en la categoría "Salud"
+3. Modificar el gasto por $100
+4. Verificar el nuevo balance</t>
   </si>
 </sst>
 </file>
@@ -325,19 +330,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +394,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,57 +463,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,24 +502,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,15 +516,6 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,17 +525,69 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,7 +933,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,136 +947,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="16">
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>3</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="18">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="18">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21">
-        <v>7</v>
-      </c>
-      <c r="D8" s="22" t="s">
+    <row r="9" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="21">
-        <v>8</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1101,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,240 +1110,259 @@
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="43" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="H2" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="D3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="D8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="E9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="42" t="s">
+      <c r="G9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="41"/>
+    </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="39"/>
+      <c r="G16" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>